--- a/modelos/Quadro Informativo - Modelo.xlsx
+++ b/modelos/Quadro Informativo - Modelo.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neto\Desktop\Projetos\Em uso\carteirinhas\modelos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neto\Desktop\Projetos\Em uso\secretariapadin\modelos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28C748D8-FE84-468B-9404-83B56E064733}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{251C7320-0979-424D-BBD7-18EAADB35A41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -159,16 +159,16 @@
     <t>Diretor(a): LUCIANA ROCHA AUGUSTINHO</t>
   </si>
   <si>
-    <t>QUADRO INFORMATIVO DE ATUALIZAÇÃO - SED 2025</t>
-  </si>
-  <si>
-    <t>Nível / Classe e Turma ( 2025 )</t>
-  </si>
-  <si>
     <t>Data do quadro:</t>
   </si>
   <si>
     <t xml:space="preserve">Responsável pelas Informações: </t>
+  </si>
+  <si>
+    <t>QUADRO INFORMATIVO DE ATUALIZAÇÃO - SED 2026</t>
+  </si>
+  <si>
+    <t>Nível / Classe e Turma ( 2026 )</t>
   </si>
 </sst>
 </file>
@@ -178,7 +178,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yy;@"/>
   </numFmts>
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -309,11 +309,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="14"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -471,16 +466,16 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -525,7 +520,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="14" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -572,7 +567,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -650,9 +645,6 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -674,9 +666,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -689,31 +678,28 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -737,6 +723,18 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="22" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="14">
@@ -1173,8 +1171,8 @@
   </sheetPr>
   <dimension ref="A1:K245"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScale="55" zoomScaleNormal="100" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="55" zoomScaleNormal="100" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1182,9 +1180,9 @@
     <col min="1" max="1" width="53.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="19.28515625" style="1" customWidth="1"/>
     <col min="3" max="3" width="20.85546875" style="22" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="22" customWidth="1"/>
-    <col min="5" max="5" width="23.28515625" style="22" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" style="22" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" style="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.42578125" style="22" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22" style="22" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.85546875" style="22" customWidth="1"/>
     <col min="8" max="8" width="40.85546875" style="22" customWidth="1"/>
     <col min="9" max="9" width="21.42578125" style="22" bestFit="1" customWidth="1"/>
@@ -1195,91 +1193,91 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="83" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="86"/>
-      <c r="J1" s="86"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
     </row>
     <row r="2" spans="1:11" s="2" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="87" t="s">
+      <c r="A2" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="87"/>
-      <c r="J2" s="87"/>
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="84"/>
+      <c r="H2" s="84"/>
+      <c r="I2" s="84"/>
+      <c r="J2" s="84"/>
     </row>
     <row r="5" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="88" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5" s="88"/>
-      <c r="C5" s="88"/>
-      <c r="D5" s="88"/>
-      <c r="E5" s="88"/>
-      <c r="F5" s="88"/>
-      <c r="G5" s="88"/>
-      <c r="H5" s="88"/>
-      <c r="I5" s="88"/>
-      <c r="J5" s="88"/>
+      <c r="A5" s="85" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="85"/>
+      <c r="C5" s="85"/>
+      <c r="D5" s="85"/>
+      <c r="E5" s="85"/>
+      <c r="F5" s="85"/>
+      <c r="G5" s="85"/>
+      <c r="H5" s="85"/>
+      <c r="I5" s="85"/>
+      <c r="J5" s="85"/>
     </row>
     <row r="6" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="89" t="s">
+      <c r="A7" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="89"/>
-      <c r="C7" s="89"/>
-      <c r="D7" s="89"/>
-      <c r="E7" s="89"/>
-      <c r="F7" s="89"/>
-      <c r="G7" s="89"/>
-      <c r="H7" s="89"/>
-      <c r="I7" s="89"/>
-      <c r="J7" s="89"/>
+      <c r="B7" s="86"/>
+      <c r="C7" s="86"/>
+      <c r="D7" s="86"/>
+      <c r="E7" s="86"/>
+      <c r="F7" s="86"/>
+      <c r="G7" s="86"/>
+      <c r="H7" s="86"/>
+      <c r="I7" s="86"/>
+      <c r="J7" s="86"/>
     </row>
     <row r="8" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="89" t="s">
+      <c r="A8" s="86" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="89"/>
-      <c r="C8" s="89"/>
-      <c r="D8" s="89"/>
-      <c r="E8" s="89"/>
-      <c r="F8" s="89"/>
-      <c r="G8" s="89"/>
-      <c r="H8" s="89"/>
-      <c r="I8" s="89"/>
-      <c r="J8" s="89"/>
+      <c r="B8" s="86"/>
+      <c r="C8" s="86"/>
+      <c r="D8" s="86"/>
+      <c r="E8" s="86"/>
+      <c r="F8" s="86"/>
+      <c r="G8" s="86"/>
+      <c r="H8" s="86"/>
+      <c r="I8" s="86"/>
+      <c r="J8" s="86"/>
     </row>
     <row r="9" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="63" t="s">
-        <v>44</v>
-      </c>
-      <c r="B9" s="83"/>
-      <c r="C9" s="83"/>
-      <c r="D9" s="83"/>
-      <c r="E9" s="83"/>
-      <c r="F9" s="63"/>
-      <c r="G9" s="63"/>
-      <c r="H9" s="63"/>
-      <c r="I9" s="64" t="s">
-        <v>43</v>
-      </c>
-      <c r="J9" s="64"/>
+      <c r="A9" s="62" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="89"/>
+      <c r="C9" s="89"/>
+      <c r="D9" s="89"/>
+      <c r="E9" s="89"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="62"/>
+      <c r="H9" s="62"/>
+      <c r="I9" s="63" t="s">
+        <v>41</v>
+      </c>
+      <c r="J9" s="63"/>
     </row>
     <row r="10" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="31"/>
@@ -1310,7 +1308,7 @@
         <v>38</v>
       </c>
       <c r="F11" s="33" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G11" s="33" t="s">
         <v>8</v>
@@ -1327,588 +1325,588 @@
       <c r="K11" s="23"/>
     </row>
     <row r="12" spans="1:11" s="25" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="67"/>
-      <c r="B12" s="68"/>
-      <c r="C12" s="69"/>
-      <c r="D12" s="49"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="70"/>
+      <c r="A12" s="66"/>
+      <c r="B12" s="67"/>
+      <c r="C12" s="68"/>
+      <c r="D12" s="66"/>
+      <c r="E12" s="66"/>
+      <c r="F12" s="66"/>
+      <c r="G12" s="66"/>
       <c r="H12" s="60"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="19"/>
+      <c r="I12" s="90"/>
+      <c r="J12" s="91"/>
       <c r="K12" s="24"/>
     </row>
     <row r="13" spans="1:11" s="25" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="66"/>
+      <c r="A13" s="65"/>
       <c r="B13" s="61"/>
-      <c r="C13" s="65"/>
+      <c r="C13" s="64"/>
       <c r="D13" s="59"/>
       <c r="E13" s="59"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="70"/>
+      <c r="F13" s="66"/>
+      <c r="G13" s="66"/>
       <c r="H13" s="60"/>
       <c r="I13" s="60"/>
-      <c r="J13" s="19"/>
+      <c r="J13" s="91"/>
       <c r="K13" s="24"/>
     </row>
     <row r="14" spans="1:11" s="25" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="66"/>
+      <c r="A14" s="65"/>
       <c r="B14" s="61"/>
-      <c r="C14" s="65"/>
+      <c r="C14" s="64"/>
       <c r="D14" s="59"/>
       <c r="E14" s="59"/>
-      <c r="F14" s="49"/>
-      <c r="G14" s="70"/>
+      <c r="F14" s="66"/>
+      <c r="G14" s="66"/>
       <c r="H14" s="60"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="62"/>
+      <c r="I14" s="90"/>
+      <c r="J14" s="92"/>
       <c r="K14" s="24"/>
     </row>
     <row r="15" spans="1:11" s="25" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="67"/>
-      <c r="B15" s="68"/>
-      <c r="C15" s="69"/>
-      <c r="D15" s="49"/>
-      <c r="E15" s="49"/>
-      <c r="F15" s="49"/>
-      <c r="G15" s="70"/>
+      <c r="A15" s="66"/>
+      <c r="B15" s="67"/>
+      <c r="C15" s="68"/>
+      <c r="D15" s="66"/>
+      <c r="E15" s="66"/>
+      <c r="F15" s="66"/>
+      <c r="G15" s="66"/>
       <c r="H15" s="60"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="19"/>
+      <c r="I15" s="90"/>
+      <c r="J15" s="91"/>
       <c r="K15" s="24"/>
     </row>
     <row r="16" spans="1:11" s="25" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="67"/>
-      <c r="B16" s="68"/>
-      <c r="C16" s="69"/>
-      <c r="D16" s="49"/>
-      <c r="E16" s="49"/>
-      <c r="F16" s="49"/>
-      <c r="G16" s="70"/>
+      <c r="A16" s="66"/>
+      <c r="B16" s="67"/>
+      <c r="C16" s="68"/>
+      <c r="D16" s="66"/>
+      <c r="E16" s="66"/>
+      <c r="F16" s="66"/>
+      <c r="G16" s="66"/>
       <c r="H16" s="60"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="19"/>
+      <c r="I16" s="90"/>
+      <c r="J16" s="91"/>
       <c r="K16" s="24"/>
     </row>
     <row r="17" spans="1:11" s="25" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="67"/>
-      <c r="B17" s="68"/>
-      <c r="C17" s="69"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="49"/>
-      <c r="G17" s="70"/>
+      <c r="A17" s="66"/>
+      <c r="B17" s="67"/>
+      <c r="C17" s="68"/>
+      <c r="D17" s="66"/>
+      <c r="E17" s="66"/>
+      <c r="F17" s="66"/>
+      <c r="G17" s="66"/>
       <c r="H17" s="60"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="19"/>
+      <c r="I17" s="90"/>
+      <c r="J17" s="91"/>
       <c r="K17" s="24"/>
     </row>
     <row r="18" spans="1:11" s="25" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="67"/>
-      <c r="B18" s="68"/>
-      <c r="C18" s="69"/>
-      <c r="D18" s="49"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="49"/>
-      <c r="G18" s="70"/>
+      <c r="A18" s="66"/>
+      <c r="B18" s="67"/>
+      <c r="C18" s="68"/>
+      <c r="D18" s="66"/>
+      <c r="E18" s="66"/>
+      <c r="F18" s="66"/>
+      <c r="G18" s="66"/>
       <c r="H18" s="60"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="19"/>
+      <c r="I18" s="90"/>
+      <c r="J18" s="91"/>
       <c r="K18" s="24"/>
     </row>
     <row r="19" spans="1:11" s="25" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="67"/>
-      <c r="B19" s="68"/>
-      <c r="C19" s="69"/>
-      <c r="D19" s="49"/>
-      <c r="E19" s="49"/>
-      <c r="F19" s="49"/>
-      <c r="G19" s="70"/>
+      <c r="A19" s="66"/>
+      <c r="B19" s="67"/>
+      <c r="C19" s="68"/>
+      <c r="D19" s="66"/>
+      <c r="E19" s="66"/>
+      <c r="F19" s="66"/>
+      <c r="G19" s="66"/>
       <c r="H19" s="60"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="19"/>
+      <c r="I19" s="90"/>
+      <c r="J19" s="91"/>
       <c r="K19" s="24"/>
     </row>
     <row r="20" spans="1:11" s="25" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="67"/>
-      <c r="B20" s="68"/>
-      <c r="C20" s="69"/>
-      <c r="D20" s="49"/>
-      <c r="E20" s="49"/>
-      <c r="F20" s="49"/>
-      <c r="G20" s="70"/>
+      <c r="A20" s="66"/>
+      <c r="B20" s="67"/>
+      <c r="C20" s="68"/>
+      <c r="D20" s="66"/>
+      <c r="E20" s="66"/>
+      <c r="F20" s="66"/>
+      <c r="G20" s="66"/>
       <c r="H20" s="60"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="19"/>
+      <c r="I20" s="90"/>
+      <c r="J20" s="91"/>
       <c r="K20" s="24"/>
     </row>
     <row r="21" spans="1:11" s="25" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="67"/>
-      <c r="B21" s="68"/>
-      <c r="C21" s="69"/>
-      <c r="D21" s="49"/>
-      <c r="E21" s="49"/>
-      <c r="F21" s="49"/>
-      <c r="G21" s="70"/>
+      <c r="A21" s="66"/>
+      <c r="B21" s="67"/>
+      <c r="C21" s="68"/>
+      <c r="D21" s="66"/>
+      <c r="E21" s="66"/>
+      <c r="F21" s="66"/>
+      <c r="G21" s="66"/>
       <c r="H21" s="60"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="19"/>
+      <c r="I21" s="90"/>
+      <c r="J21" s="91"/>
       <c r="K21" s="24"/>
     </row>
     <row r="22" spans="1:11" s="25" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="67"/>
-      <c r="B22" s="68"/>
-      <c r="C22" s="69"/>
-      <c r="D22" s="49"/>
-      <c r="E22" s="49"/>
-      <c r="F22" s="49"/>
-      <c r="G22" s="70"/>
+      <c r="A22" s="66"/>
+      <c r="B22" s="67"/>
+      <c r="C22" s="68"/>
+      <c r="D22" s="66"/>
+      <c r="E22" s="66"/>
+      <c r="F22" s="66"/>
+      <c r="G22" s="66"/>
       <c r="H22" s="60"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="19"/>
+      <c r="I22" s="90"/>
+      <c r="J22" s="91"/>
       <c r="K22" s="24"/>
     </row>
     <row r="23" spans="1:11" s="25" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="67"/>
-      <c r="B23" s="68"/>
-      <c r="C23" s="69"/>
-      <c r="D23" s="49"/>
-      <c r="E23" s="49"/>
-      <c r="F23" s="49"/>
-      <c r="G23" s="70"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="19"/>
+      <c r="A23" s="66"/>
+      <c r="B23" s="67"/>
+      <c r="C23" s="68"/>
+      <c r="D23" s="66"/>
+      <c r="E23" s="66"/>
+      <c r="F23" s="66"/>
+      <c r="G23" s="66"/>
+      <c r="H23" s="90"/>
+      <c r="I23" s="90"/>
+      <c r="J23" s="91"/>
       <c r="K23" s="24"/>
     </row>
     <row r="24" spans="1:11" s="25" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="67"/>
-      <c r="B24" s="68"/>
-      <c r="C24" s="69"/>
-      <c r="D24" s="49"/>
-      <c r="E24" s="49"/>
-      <c r="F24" s="49"/>
-      <c r="G24" s="70"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="19"/>
+      <c r="A24" s="66"/>
+      <c r="B24" s="67"/>
+      <c r="C24" s="68"/>
+      <c r="D24" s="66"/>
+      <c r="E24" s="66"/>
+      <c r="F24" s="66"/>
+      <c r="G24" s="66"/>
+      <c r="H24" s="90"/>
+      <c r="I24" s="90"/>
+      <c r="J24" s="91"/>
       <c r="K24" s="24"/>
     </row>
     <row r="25" spans="1:11" s="25" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="67"/>
-      <c r="B25" s="68"/>
-      <c r="C25" s="69"/>
-      <c r="D25" s="49"/>
-      <c r="E25" s="49"/>
-      <c r="F25" s="49"/>
-      <c r="G25" s="70"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="17"/>
-      <c r="J25" s="19"/>
+      <c r="A25" s="66"/>
+      <c r="B25" s="67"/>
+      <c r="C25" s="68"/>
+      <c r="D25" s="66"/>
+      <c r="E25" s="66"/>
+      <c r="F25" s="66"/>
+      <c r="G25" s="66"/>
+      <c r="H25" s="90"/>
+      <c r="I25" s="90"/>
+      <c r="J25" s="91"/>
       <c r="K25" s="24"/>
     </row>
     <row r="26" spans="1:11" s="25" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="67"/>
-      <c r="B26" s="68"/>
-      <c r="C26" s="69"/>
-      <c r="D26" s="49"/>
-      <c r="E26" s="49"/>
-      <c r="F26" s="49"/>
-      <c r="G26" s="70"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="17"/>
-      <c r="J26" s="19"/>
+      <c r="A26" s="66"/>
+      <c r="B26" s="67"/>
+      <c r="C26" s="68"/>
+      <c r="D26" s="66"/>
+      <c r="E26" s="66"/>
+      <c r="F26" s="66"/>
+      <c r="G26" s="66"/>
+      <c r="H26" s="90"/>
+      <c r="I26" s="90"/>
+      <c r="J26" s="91"/>
       <c r="K26" s="24"/>
     </row>
     <row r="27" spans="1:11" s="25" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="67"/>
-      <c r="B27" s="68"/>
-      <c r="C27" s="69"/>
-      <c r="D27" s="49"/>
-      <c r="E27" s="49"/>
-      <c r="F27" s="49"/>
-      <c r="G27" s="70"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="17"/>
-      <c r="J27" s="19"/>
+      <c r="A27" s="66"/>
+      <c r="B27" s="67"/>
+      <c r="C27" s="68"/>
+      <c r="D27" s="66"/>
+      <c r="E27" s="66"/>
+      <c r="F27" s="66"/>
+      <c r="G27" s="66"/>
+      <c r="H27" s="90"/>
+      <c r="I27" s="90"/>
+      <c r="J27" s="91"/>
       <c r="K27" s="24"/>
     </row>
     <row r="28" spans="1:11" s="25" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="67"/>
-      <c r="B28" s="68"/>
-      <c r="C28" s="69"/>
-      <c r="D28" s="49"/>
-      <c r="E28" s="49"/>
-      <c r="F28" s="49"/>
-      <c r="G28" s="70"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="17"/>
-      <c r="J28" s="19"/>
+      <c r="A28" s="66"/>
+      <c r="B28" s="67"/>
+      <c r="C28" s="68"/>
+      <c r="D28" s="66"/>
+      <c r="E28" s="66"/>
+      <c r="F28" s="66"/>
+      <c r="G28" s="66"/>
+      <c r="H28" s="90"/>
+      <c r="I28" s="90"/>
+      <c r="J28" s="91"/>
       <c r="K28" s="24"/>
     </row>
     <row r="29" spans="1:11" s="25" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="67"/>
-      <c r="B29" s="68"/>
-      <c r="C29" s="69"/>
-      <c r="D29" s="49"/>
-      <c r="E29" s="49"/>
-      <c r="F29" s="49"/>
-      <c r="G29" s="70"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="17"/>
-      <c r="J29" s="19"/>
+      <c r="A29" s="66"/>
+      <c r="B29" s="67"/>
+      <c r="C29" s="68"/>
+      <c r="D29" s="66"/>
+      <c r="E29" s="66"/>
+      <c r="F29" s="66"/>
+      <c r="G29" s="66"/>
+      <c r="H29" s="90"/>
+      <c r="I29" s="90"/>
+      <c r="J29" s="91"/>
       <c r="K29" s="24"/>
     </row>
     <row r="30" spans="1:11" s="25" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="67"/>
-      <c r="B30" s="68"/>
-      <c r="C30" s="69"/>
-      <c r="D30" s="49"/>
-      <c r="E30" s="49"/>
-      <c r="F30" s="49"/>
-      <c r="G30" s="70"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="17"/>
-      <c r="J30" s="19"/>
+      <c r="A30" s="66"/>
+      <c r="B30" s="67"/>
+      <c r="C30" s="68"/>
+      <c r="D30" s="66"/>
+      <c r="E30" s="66"/>
+      <c r="F30" s="66"/>
+      <c r="G30" s="66"/>
+      <c r="H30" s="90"/>
+      <c r="I30" s="90"/>
+      <c r="J30" s="91"/>
       <c r="K30" s="24"/>
     </row>
     <row r="31" spans="1:11" s="25" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="67"/>
-      <c r="B31" s="68"/>
-      <c r="C31" s="69"/>
-      <c r="D31" s="49"/>
-      <c r="E31" s="49"/>
-      <c r="F31" s="49"/>
-      <c r="G31" s="70"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="17"/>
-      <c r="J31" s="19"/>
+      <c r="A31" s="66"/>
+      <c r="B31" s="67"/>
+      <c r="C31" s="68"/>
+      <c r="D31" s="66"/>
+      <c r="E31" s="66"/>
+      <c r="F31" s="66"/>
+      <c r="G31" s="66"/>
+      <c r="H31" s="90"/>
+      <c r="I31" s="90"/>
+      <c r="J31" s="91"/>
       <c r="K31" s="24"/>
     </row>
     <row r="32" spans="1:11" s="25" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="67"/>
-      <c r="B32" s="68"/>
-      <c r="C32" s="69"/>
-      <c r="D32" s="49"/>
-      <c r="E32" s="49"/>
-      <c r="F32" s="49"/>
-      <c r="G32" s="70"/>
-      <c r="H32" s="17"/>
-      <c r="I32" s="17"/>
-      <c r="J32" s="19"/>
+      <c r="A32" s="66"/>
+      <c r="B32" s="67"/>
+      <c r="C32" s="68"/>
+      <c r="D32" s="66"/>
+      <c r="E32" s="66"/>
+      <c r="F32" s="66"/>
+      <c r="G32" s="66"/>
+      <c r="H32" s="90"/>
+      <c r="I32" s="90"/>
+      <c r="J32" s="91"/>
       <c r="K32" s="24"/>
     </row>
     <row r="33" spans="1:11" s="25" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="67"/>
-      <c r="B33" s="68"/>
-      <c r="C33" s="69"/>
-      <c r="D33" s="49"/>
-      <c r="E33" s="49"/>
-      <c r="F33" s="49"/>
-      <c r="G33" s="70"/>
-      <c r="H33" s="17"/>
-      <c r="I33" s="17"/>
-      <c r="J33" s="19"/>
+      <c r="A33" s="66"/>
+      <c r="B33" s="67"/>
+      <c r="C33" s="68"/>
+      <c r="D33" s="66"/>
+      <c r="E33" s="66"/>
+      <c r="F33" s="66"/>
+      <c r="G33" s="66"/>
+      <c r="H33" s="90"/>
+      <c r="I33" s="90"/>
+      <c r="J33" s="91"/>
       <c r="K33" s="24"/>
     </row>
     <row r="34" spans="1:11" s="25" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="67"/>
-      <c r="B34" s="68"/>
-      <c r="C34" s="69"/>
-      <c r="D34" s="49"/>
-      <c r="E34" s="49"/>
-      <c r="F34" s="49"/>
-      <c r="G34" s="70"/>
-      <c r="H34" s="17"/>
-      <c r="I34" s="17"/>
-      <c r="J34" s="19"/>
+      <c r="A34" s="66"/>
+      <c r="B34" s="67"/>
+      <c r="C34" s="68"/>
+      <c r="D34" s="66"/>
+      <c r="E34" s="66"/>
+      <c r="F34" s="66"/>
+      <c r="G34" s="66"/>
+      <c r="H34" s="90"/>
+      <c r="I34" s="90"/>
+      <c r="J34" s="91"/>
       <c r="K34" s="24"/>
     </row>
     <row r="35" spans="1:11" s="25" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="67"/>
-      <c r="B35" s="68"/>
-      <c r="C35" s="69"/>
-      <c r="D35" s="49"/>
-      <c r="E35" s="49"/>
-      <c r="F35" s="49"/>
-      <c r="G35" s="70"/>
-      <c r="H35" s="17"/>
-      <c r="I35" s="17"/>
-      <c r="J35" s="19"/>
+      <c r="A35" s="66"/>
+      <c r="B35" s="67"/>
+      <c r="C35" s="68"/>
+      <c r="D35" s="66"/>
+      <c r="E35" s="66"/>
+      <c r="F35" s="66"/>
+      <c r="G35" s="66"/>
+      <c r="H35" s="90"/>
+      <c r="I35" s="90"/>
+      <c r="J35" s="91"/>
       <c r="K35" s="24"/>
     </row>
     <row r="36" spans="1:11" s="25" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="67"/>
-      <c r="B36" s="68"/>
-      <c r="C36" s="69"/>
-      <c r="D36" s="49"/>
-      <c r="E36" s="49"/>
-      <c r="F36" s="49"/>
-      <c r="G36" s="70"/>
-      <c r="H36" s="17"/>
-      <c r="I36" s="17"/>
-      <c r="J36" s="19"/>
+      <c r="A36" s="66"/>
+      <c r="B36" s="67"/>
+      <c r="C36" s="68"/>
+      <c r="D36" s="66"/>
+      <c r="E36" s="66"/>
+      <c r="F36" s="66"/>
+      <c r="G36" s="66"/>
+      <c r="H36" s="90"/>
+      <c r="I36" s="90"/>
+      <c r="J36" s="91"/>
       <c r="K36" s="24"/>
     </row>
     <row r="37" spans="1:11" s="25" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="67"/>
-      <c r="B37" s="68"/>
-      <c r="C37" s="69"/>
-      <c r="D37" s="49"/>
-      <c r="E37" s="49"/>
-      <c r="F37" s="49"/>
-      <c r="G37" s="70"/>
-      <c r="H37" s="17"/>
-      <c r="I37" s="17"/>
-      <c r="J37" s="19"/>
+      <c r="A37" s="66"/>
+      <c r="B37" s="67"/>
+      <c r="C37" s="68"/>
+      <c r="D37" s="66"/>
+      <c r="E37" s="66"/>
+      <c r="F37" s="66"/>
+      <c r="G37" s="66"/>
+      <c r="H37" s="90"/>
+      <c r="I37" s="90"/>
+      <c r="J37" s="91"/>
       <c r="K37" s="24"/>
     </row>
     <row r="38" spans="1:11" s="25" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="67"/>
-      <c r="B38" s="68"/>
-      <c r="C38" s="69"/>
-      <c r="D38" s="49"/>
-      <c r="E38" s="49"/>
-      <c r="F38" s="49"/>
-      <c r="G38" s="70"/>
-      <c r="H38" s="17"/>
-      <c r="I38" s="17"/>
-      <c r="J38" s="19"/>
+      <c r="A38" s="66"/>
+      <c r="B38" s="67"/>
+      <c r="C38" s="68"/>
+      <c r="D38" s="66"/>
+      <c r="E38" s="66"/>
+      <c r="F38" s="66"/>
+      <c r="G38" s="66"/>
+      <c r="H38" s="90"/>
+      <c r="I38" s="90"/>
+      <c r="J38" s="91"/>
       <c r="K38" s="24"/>
     </row>
     <row r="39" spans="1:11" s="25" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="67"/>
-      <c r="B39" s="68"/>
-      <c r="C39" s="69"/>
-      <c r="D39" s="49"/>
-      <c r="E39" s="49"/>
-      <c r="F39" s="49"/>
-      <c r="G39" s="70"/>
-      <c r="H39" s="17"/>
-      <c r="I39" s="17"/>
-      <c r="J39" s="19"/>
+      <c r="A39" s="66"/>
+      <c r="B39" s="67"/>
+      <c r="C39" s="68"/>
+      <c r="D39" s="66"/>
+      <c r="E39" s="66"/>
+      <c r="F39" s="66"/>
+      <c r="G39" s="66"/>
+      <c r="H39" s="90"/>
+      <c r="I39" s="90"/>
+      <c r="J39" s="91"/>
       <c r="K39" s="24"/>
     </row>
     <row r="40" spans="1:11" s="25" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="67"/>
-      <c r="B40" s="68"/>
-      <c r="C40" s="69"/>
-      <c r="D40" s="49"/>
-      <c r="E40" s="49"/>
-      <c r="F40" s="49"/>
-      <c r="G40" s="70"/>
-      <c r="H40" s="17"/>
-      <c r="I40" s="17"/>
-      <c r="J40" s="19"/>
+      <c r="A40" s="66"/>
+      <c r="B40" s="67"/>
+      <c r="C40" s="68"/>
+      <c r="D40" s="66"/>
+      <c r="E40" s="66"/>
+      <c r="F40" s="66"/>
+      <c r="G40" s="66"/>
+      <c r="H40" s="90"/>
+      <c r="I40" s="90"/>
+      <c r="J40" s="91"/>
       <c r="K40" s="24"/>
     </row>
     <row r="41" spans="1:11" s="25" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="67"/>
-      <c r="B41" s="68"/>
-      <c r="C41" s="69"/>
-      <c r="D41" s="49"/>
-      <c r="E41" s="49"/>
-      <c r="F41" s="49"/>
-      <c r="G41" s="70"/>
-      <c r="H41" s="17"/>
-      <c r="I41" s="17"/>
-      <c r="J41" s="19"/>
+      <c r="A41" s="66"/>
+      <c r="B41" s="67"/>
+      <c r="C41" s="68"/>
+      <c r="D41" s="66"/>
+      <c r="E41" s="66"/>
+      <c r="F41" s="66"/>
+      <c r="G41" s="66"/>
+      <c r="H41" s="90"/>
+      <c r="I41" s="90"/>
+      <c r="J41" s="91"/>
       <c r="K41" s="24"/>
     </row>
     <row r="42" spans="1:11" s="25" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="67"/>
-      <c r="B42" s="68"/>
-      <c r="C42" s="69"/>
-      <c r="D42" s="49"/>
-      <c r="E42" s="49"/>
-      <c r="F42" s="49"/>
-      <c r="G42" s="70"/>
-      <c r="H42" s="17"/>
-      <c r="I42" s="17"/>
-      <c r="J42" s="19"/>
+      <c r="A42" s="66"/>
+      <c r="B42" s="67"/>
+      <c r="C42" s="68"/>
+      <c r="D42" s="66"/>
+      <c r="E42" s="66"/>
+      <c r="F42" s="66"/>
+      <c r="G42" s="66"/>
+      <c r="H42" s="90"/>
+      <c r="I42" s="90"/>
+      <c r="J42" s="91"/>
       <c r="K42" s="24"/>
     </row>
     <row r="43" spans="1:11" s="25" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="67"/>
-      <c r="B43" s="68"/>
-      <c r="C43" s="69"/>
-      <c r="D43" s="49"/>
-      <c r="E43" s="49"/>
-      <c r="F43" s="49"/>
-      <c r="G43" s="70"/>
-      <c r="H43" s="17"/>
-      <c r="I43" s="17"/>
-      <c r="J43" s="19"/>
+      <c r="A43" s="66"/>
+      <c r="B43" s="67"/>
+      <c r="C43" s="68"/>
+      <c r="D43" s="66"/>
+      <c r="E43" s="66"/>
+      <c r="F43" s="66"/>
+      <c r="G43" s="66"/>
+      <c r="H43" s="90"/>
+      <c r="I43" s="90"/>
+      <c r="J43" s="91"/>
       <c r="K43" s="24"/>
     </row>
     <row r="44" spans="1:11" s="25" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="67"/>
-      <c r="B44" s="68"/>
-      <c r="C44" s="69"/>
-      <c r="D44" s="49"/>
-      <c r="E44" s="49"/>
-      <c r="F44" s="49"/>
-      <c r="G44" s="70"/>
-      <c r="H44" s="17"/>
-      <c r="I44" s="17"/>
-      <c r="J44" s="19"/>
+      <c r="A44" s="66"/>
+      <c r="B44" s="67"/>
+      <c r="C44" s="68"/>
+      <c r="D44" s="66"/>
+      <c r="E44" s="66"/>
+      <c r="F44" s="66"/>
+      <c r="G44" s="66"/>
+      <c r="H44" s="90"/>
+      <c r="I44" s="90"/>
+      <c r="J44" s="91"/>
       <c r="K44" s="24"/>
     </row>
     <row r="45" spans="1:11" s="25" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="67"/>
-      <c r="B45" s="68"/>
-      <c r="C45" s="69"/>
-      <c r="D45" s="49"/>
-      <c r="E45" s="49"/>
-      <c r="F45" s="49"/>
-      <c r="G45" s="70"/>
-      <c r="H45" s="17"/>
-      <c r="I45" s="17"/>
-      <c r="J45" s="19"/>
+      <c r="A45" s="66"/>
+      <c r="B45" s="67"/>
+      <c r="C45" s="68"/>
+      <c r="D45" s="66"/>
+      <c r="E45" s="66"/>
+      <c r="F45" s="66"/>
+      <c r="G45" s="66"/>
+      <c r="H45" s="90"/>
+      <c r="I45" s="90"/>
+      <c r="J45" s="91"/>
       <c r="K45" s="24"/>
     </row>
     <row r="46" spans="1:11" s="25" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="67"/>
-      <c r="B46" s="68"/>
-      <c r="C46" s="69"/>
-      <c r="D46" s="49"/>
-      <c r="E46" s="49"/>
-      <c r="F46" s="49"/>
-      <c r="G46" s="70"/>
-      <c r="H46" s="17"/>
-      <c r="I46" s="17"/>
-      <c r="J46" s="19"/>
+      <c r="A46" s="66"/>
+      <c r="B46" s="67"/>
+      <c r="C46" s="68"/>
+      <c r="D46" s="66"/>
+      <c r="E46" s="66"/>
+      <c r="F46" s="66"/>
+      <c r="G46" s="66"/>
+      <c r="H46" s="90"/>
+      <c r="I46" s="90"/>
+      <c r="J46" s="91"/>
       <c r="K46" s="24"/>
     </row>
     <row r="47" spans="1:11" s="25" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="67"/>
-      <c r="B47" s="68"/>
-      <c r="C47" s="69"/>
-      <c r="D47" s="49"/>
-      <c r="E47" s="49"/>
-      <c r="F47" s="49"/>
-      <c r="G47" s="70"/>
-      <c r="H47" s="17"/>
-      <c r="I47" s="17"/>
-      <c r="J47" s="19"/>
+      <c r="A47" s="66"/>
+      <c r="B47" s="67"/>
+      <c r="C47" s="68"/>
+      <c r="D47" s="66"/>
+      <c r="E47" s="66"/>
+      <c r="F47" s="66"/>
+      <c r="G47" s="66"/>
+      <c r="H47" s="90"/>
+      <c r="I47" s="90"/>
+      <c r="J47" s="91"/>
       <c r="K47" s="24"/>
     </row>
     <row r="48" spans="1:11" s="25" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="67"/>
-      <c r="B48" s="68"/>
-      <c r="C48" s="69"/>
-      <c r="D48" s="49"/>
-      <c r="E48" s="49"/>
-      <c r="F48" s="49"/>
-      <c r="G48" s="70"/>
-      <c r="H48" s="17"/>
-      <c r="I48" s="17"/>
-      <c r="J48" s="19"/>
+      <c r="A48" s="66"/>
+      <c r="B48" s="67"/>
+      <c r="C48" s="68"/>
+      <c r="D48" s="66"/>
+      <c r="E48" s="66"/>
+      <c r="F48" s="66"/>
+      <c r="G48" s="66"/>
+      <c r="H48" s="90"/>
+      <c r="I48" s="90"/>
+      <c r="J48" s="91"/>
       <c r="K48" s="24"/>
     </row>
     <row r="49" spans="1:11" s="25" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="67"/>
-      <c r="B49" s="68"/>
-      <c r="C49" s="69"/>
-      <c r="D49" s="49"/>
-      <c r="E49" s="49"/>
-      <c r="F49" s="49"/>
-      <c r="G49" s="70"/>
-      <c r="H49" s="17"/>
-      <c r="I49" s="17"/>
-      <c r="J49" s="19"/>
+      <c r="A49" s="66"/>
+      <c r="B49" s="67"/>
+      <c r="C49" s="68"/>
+      <c r="D49" s="66"/>
+      <c r="E49" s="66"/>
+      <c r="F49" s="66"/>
+      <c r="G49" s="66"/>
+      <c r="H49" s="90"/>
+      <c r="I49" s="90"/>
+      <c r="J49" s="91"/>
       <c r="K49" s="24"/>
     </row>
     <row r="50" spans="1:11" s="25" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="67"/>
-      <c r="B50" s="68"/>
-      <c r="C50" s="69"/>
-      <c r="D50" s="49"/>
-      <c r="E50" s="49"/>
-      <c r="F50" s="49"/>
-      <c r="G50" s="70"/>
-      <c r="H50" s="17"/>
-      <c r="I50" s="17"/>
-      <c r="J50" s="19"/>
+      <c r="A50" s="66"/>
+      <c r="B50" s="67"/>
+      <c r="C50" s="68"/>
+      <c r="D50" s="66"/>
+      <c r="E50" s="66"/>
+      <c r="F50" s="66"/>
+      <c r="G50" s="66"/>
+      <c r="H50" s="90"/>
+      <c r="I50" s="90"/>
+      <c r="J50" s="91"/>
       <c r="K50" s="24"/>
     </row>
     <row r="51" spans="1:11" s="25" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="67"/>
-      <c r="B51" s="68"/>
-      <c r="C51" s="69"/>
-      <c r="D51" s="49"/>
-      <c r="E51" s="49"/>
-      <c r="F51" s="49"/>
-      <c r="G51" s="70"/>
-      <c r="H51" s="17"/>
-      <c r="I51" s="17"/>
-      <c r="J51" s="19"/>
+      <c r="A51" s="66"/>
+      <c r="B51" s="67"/>
+      <c r="C51" s="68"/>
+      <c r="D51" s="66"/>
+      <c r="E51" s="66"/>
+      <c r="F51" s="66"/>
+      <c r="G51" s="66"/>
+      <c r="H51" s="90"/>
+      <c r="I51" s="90"/>
+      <c r="J51" s="91"/>
       <c r="K51" s="24"/>
     </row>
     <row r="52" spans="1:11" s="25" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="67"/>
-      <c r="B52" s="68"/>
-      <c r="C52" s="69"/>
-      <c r="D52" s="49"/>
-      <c r="E52" s="49"/>
-      <c r="F52" s="49"/>
-      <c r="G52" s="70"/>
-      <c r="H52" s="17"/>
-      <c r="I52" s="17"/>
-      <c r="J52" s="19"/>
+      <c r="A52" s="66"/>
+      <c r="B52" s="67"/>
+      <c r="C52" s="68"/>
+      <c r="D52" s="66"/>
+      <c r="E52" s="66"/>
+      <c r="F52" s="66"/>
+      <c r="G52" s="66"/>
+      <c r="H52" s="90"/>
+      <c r="I52" s="90"/>
+      <c r="J52" s="91"/>
       <c r="K52" s="24"/>
     </row>
     <row r="53" spans="1:11" s="25" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="67"/>
-      <c r="B53" s="68"/>
-      <c r="C53" s="69"/>
-      <c r="D53" s="49"/>
-      <c r="E53" s="49"/>
-      <c r="F53" s="49"/>
-      <c r="G53" s="70"/>
-      <c r="H53" s="17"/>
-      <c r="I53" s="17"/>
-      <c r="J53" s="19"/>
+      <c r="A53" s="66"/>
+      <c r="B53" s="67"/>
+      <c r="C53" s="68"/>
+      <c r="D53" s="66"/>
+      <c r="E53" s="66"/>
+      <c r="F53" s="66"/>
+      <c r="G53" s="66"/>
+      <c r="H53" s="90"/>
+      <c r="I53" s="90"/>
+      <c r="J53" s="91"/>
       <c r="K53" s="24"/>
     </row>
     <row r="54" spans="1:11" s="25" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="67"/>
-      <c r="B54" s="68"/>
-      <c r="C54" s="69"/>
-      <c r="D54" s="49"/>
-      <c r="E54" s="49"/>
-      <c r="F54" s="49"/>
-      <c r="G54" s="70"/>
-      <c r="H54" s="17"/>
-      <c r="I54" s="17"/>
-      <c r="J54" s="19"/>
+      <c r="A54" s="66"/>
+      <c r="B54" s="67"/>
+      <c r="C54" s="68"/>
+      <c r="D54" s="66"/>
+      <c r="E54" s="66"/>
+      <c r="F54" s="66"/>
+      <c r="G54" s="66"/>
+      <c r="H54" s="90"/>
+      <c r="I54" s="90"/>
+      <c r="J54" s="91"/>
       <c r="K54" s="24"/>
     </row>
     <row r="55" spans="1:11" s="25" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="67"/>
-      <c r="B55" s="68"/>
-      <c r="C55" s="69"/>
-      <c r="D55" s="49"/>
-      <c r="E55" s="49"/>
-      <c r="F55" s="49"/>
-      <c r="G55" s="70"/>
-      <c r="H55" s="17"/>
-      <c r="I55" s="17"/>
-      <c r="J55" s="19"/>
+      <c r="A55" s="66"/>
+      <c r="B55" s="67"/>
+      <c r="C55" s="68"/>
+      <c r="D55" s="66"/>
+      <c r="E55" s="66"/>
+      <c r="F55" s="66"/>
+      <c r="G55" s="66"/>
+      <c r="H55" s="90"/>
+      <c r="I55" s="90"/>
+      <c r="J55" s="91"/>
       <c r="K55" s="24"/>
     </row>
     <row r="56" spans="1:11" s="25" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="67"/>
-      <c r="B56" s="68"/>
-      <c r="C56" s="69"/>
-      <c r="D56" s="49"/>
-      <c r="E56" s="49"/>
-      <c r="F56" s="49"/>
-      <c r="G56" s="70"/>
-      <c r="H56" s="17"/>
-      <c r="I56" s="17"/>
-      <c r="J56" s="19"/>
+      <c r="A56" s="66"/>
+      <c r="B56" s="67"/>
+      <c r="C56" s="68"/>
+      <c r="D56" s="66"/>
+      <c r="E56" s="66"/>
+      <c r="F56" s="66"/>
+      <c r="G56" s="66"/>
+      <c r="H56" s="90"/>
+      <c r="I56" s="90"/>
+      <c r="J56" s="91"/>
       <c r="K56" s="24"/>
     </row>
     <row r="57" spans="1:11" s="25" customFormat="1" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -2042,105 +2040,105 @@
       <c r="K66" s="24"/>
     </row>
     <row r="67" spans="1:11" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="79" t="s">
+      <c r="A67" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="B67" s="80"/>
-      <c r="C67" s="90" t="s">
+      <c r="B67" s="78"/>
+      <c r="C67" s="87" t="s">
         <v>34</v>
       </c>
-      <c r="D67" s="91"/>
+      <c r="D67" s="88"/>
       <c r="E67" s="50"/>
       <c r="F67" s="20"/>
-      <c r="G67" s="90" t="s">
+      <c r="G67" s="87" t="s">
         <v>35</v>
       </c>
-      <c r="H67" s="91"/>
+      <c r="H67" s="88"/>
       <c r="J67" s="14"/>
     </row>
     <row r="68" spans="1:11" s="12" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A68" s="79" t="s">
+      <c r="A68" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="B68" s="80"/>
-      <c r="C68" s="77" t="s">
+      <c r="B68" s="78"/>
+      <c r="C68" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="D68" s="78"/>
+      <c r="D68" s="76"/>
       <c r="E68" s="51"/>
       <c r="F68" s="20"/>
-      <c r="G68" s="75" t="s">
+      <c r="G68" s="79" t="s">
         <v>27</v>
       </c>
-      <c r="H68" s="76"/>
+      <c r="H68" s="80"/>
       <c r="J68" s="14"/>
     </row>
     <row r="69" spans="1:11" s="12" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A69" s="84" t="s">
+      <c r="A69" s="81" t="s">
         <v>21</v>
       </c>
-      <c r="B69" s="85"/>
-      <c r="C69" s="77" t="s">
+      <c r="B69" s="82"/>
+      <c r="C69" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="D69" s="78"/>
+      <c r="D69" s="76"/>
       <c r="E69" s="51"/>
       <c r="F69" s="20"/>
-      <c r="G69" s="73" t="s">
+      <c r="G69" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="H69" s="74"/>
+      <c r="H69" s="72"/>
       <c r="J69" s="14"/>
     </row>
     <row r="70" spans="1:11" s="12" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A70" s="79" t="s">
+      <c r="A70" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="B70" s="80"/>
-      <c r="C70" s="77" t="s">
+      <c r="B70" s="78"/>
+      <c r="C70" s="75" t="s">
         <v>24</v>
       </c>
-      <c r="D70" s="78"/>
+      <c r="D70" s="76"/>
       <c r="E70" s="51"/>
       <c r="F70" s="20"/>
-      <c r="G70" s="73" t="s">
+      <c r="G70" s="71" t="s">
         <v>31</v>
       </c>
-      <c r="H70" s="74"/>
+      <c r="H70" s="72"/>
       <c r="J70" s="14"/>
     </row>
     <row r="71" spans="1:11" s="12" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A71" s="79" t="s">
+      <c r="A71" s="77" t="s">
         <v>18</v>
       </c>
-      <c r="B71" s="80"/>
-      <c r="C71" s="77" t="s">
+      <c r="B71" s="78"/>
+      <c r="C71" s="75" t="s">
         <v>36</v>
       </c>
-      <c r="D71" s="78"/>
+      <c r="D71" s="76"/>
       <c r="E71" s="51"/>
       <c r="F71" s="20"/>
-      <c r="G71" s="73" t="s">
+      <c r="G71" s="71" t="s">
         <v>29</v>
       </c>
-      <c r="H71" s="74"/>
+      <c r="H71" s="72"/>
       <c r="J71" s="14"/>
     </row>
     <row r="72" spans="1:11" s="12" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A72" s="79" t="s">
+      <c r="A72" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="B72" s="80"/>
-      <c r="C72" s="77" t="s">
+      <c r="B72" s="78"/>
+      <c r="C72" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="D72" s="78"/>
+      <c r="D72" s="76"/>
       <c r="E72" s="51"/>
       <c r="F72" s="20"/>
-      <c r="G72" s="73" t="s">
+      <c r="G72" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="H72" s="74"/>
+      <c r="H72" s="72"/>
       <c r="J72" s="14"/>
     </row>
     <row r="73" spans="1:11" s="12" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -2148,61 +2146,61 @@
         <v>12</v>
       </c>
       <c r="B73" s="21"/>
-      <c r="C73" s="77" t="s">
+      <c r="C73" s="75" t="s">
         <v>25</v>
       </c>
-      <c r="D73" s="78"/>
+      <c r="D73" s="76"/>
       <c r="E73" s="51"/>
       <c r="F73" s="16"/>
-      <c r="G73" s="73" t="s">
+      <c r="G73" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="H73" s="74"/>
+      <c r="H73" s="72"/>
       <c r="J73" s="14"/>
     </row>
     <row r="74" spans="1:11" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A74" s="13"/>
       <c r="B74" s="13"/>
-      <c r="C74" s="77" t="s">
+      <c r="C74" s="75" t="s">
         <v>17</v>
       </c>
-      <c r="D74" s="78"/>
+      <c r="D74" s="76"/>
       <c r="E74" s="51"/>
       <c r="F74" s="13"/>
-      <c r="G74" s="73" t="s">
+      <c r="G74" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="H74" s="74"/>
+      <c r="H74" s="72"/>
       <c r="J74" s="5"/>
     </row>
     <row r="75" spans="1:11" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A75" s="13"/>
       <c r="B75" s="13"/>
-      <c r="C75" s="77" t="s">
+      <c r="C75" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="D75" s="78"/>
+      <c r="D75" s="76"/>
       <c r="E75" s="51"/>
       <c r="F75" s="13"/>
-      <c r="G75" s="73" t="s">
+      <c r="G75" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="H75" s="74"/>
+      <c r="H75" s="72"/>
       <c r="J75" s="5"/>
     </row>
     <row r="76" spans="1:11" s="4" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="13"/>
       <c r="B76" s="13"/>
-      <c r="C76" s="81" t="s">
+      <c r="C76" s="73" t="s">
         <v>37</v>
       </c>
-      <c r="D76" s="82"/>
+      <c r="D76" s="74"/>
       <c r="E76" s="51"/>
       <c r="F76" s="13"/>
-      <c r="G76" s="73" t="s">
+      <c r="G76" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="H76" s="74"/>
+      <c r="H76" s="72"/>
       <c r="J76" s="5"/>
     </row>
     <row r="77" spans="1:11" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2212,10 +2210,10 @@
       <c r="D77" s="6"/>
       <c r="E77" s="6"/>
       <c r="F77" s="6"/>
-      <c r="G77" s="71" t="s">
+      <c r="G77" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="H77" s="72"/>
+      <c r="H77" s="70"/>
       <c r="J77" s="5"/>
     </row>
     <row r="78" spans="1:11" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -3552,28 +3550,13 @@
       <c r="I222" s="1"/>
       <c r="J222" s="1"/>
     </row>
-    <row r="242" spans="3:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C242" s="1"/>
-      <c r="D242" s="1"/>
-      <c r="E242" s="1"/>
-      <c r="F242" s="1"/>
-      <c r="G242" s="1"/>
-      <c r="H242" s="1"/>
-      <c r="I242" s="1"/>
-      <c r="J242" s="1"/>
-    </row>
-    <row r="245" spans="3:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C245" s="1"/>
-      <c r="D245" s="1"/>
-      <c r="E245" s="1"/>
-      <c r="F245" s="1"/>
-      <c r="G245" s="1"/>
-      <c r="H245" s="1"/>
-      <c r="I245" s="1"/>
-      <c r="J245" s="1"/>
-    </row>
+    <row r="242" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="245" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="A71:B71"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A5:J5"/>
@@ -3583,11 +3566,6 @@
     <mergeCell ref="A8:J8"/>
     <mergeCell ref="G67:H67"/>
     <mergeCell ref="B9:E9"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="A71:B71"/>
     <mergeCell ref="C76:D76"/>
     <mergeCell ref="C69:D69"/>
     <mergeCell ref="C70:D70"/>
@@ -3602,6 +3580,8 @@
     <mergeCell ref="G71:H71"/>
     <mergeCell ref="C72:D72"/>
     <mergeCell ref="G69:H69"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A72:B72"/>
     <mergeCell ref="G77:H77"/>
     <mergeCell ref="G76:H76"/>
     <mergeCell ref="G74:H74"/>
